--- a/Cinematica.xlsx
+++ b/Cinematica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\RobotMSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E83EBF-E976-46FD-A0D0-240F85428BA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C31273E-CDE2-4081-9293-73C90E2BE386}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16950" yWindow="5445" windowWidth="15375" windowHeight="7875" tabRatio="689" xr2:uid="{284895CC-7DE9-430B-8345-47DE5C2A6C23}"/>
+    <workbookView xWindow="12750" yWindow="1275" windowWidth="15375" windowHeight="7875" tabRatio="689" xr2:uid="{284895CC-7DE9-430B-8345-47DE5C2A6C23}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1 (2)" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>AnguloB</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>pos en base</t>
+  </si>
+  <si>
+    <t>angulos mayores a 90</t>
+  </si>
+  <si>
+    <t>menores a 90</t>
+  </si>
+  <si>
+    <t>git chec</t>
   </si>
 </sst>
 </file>
@@ -452,13 +461,15 @@
   <dimension ref="A2:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -477,13 +488,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -492,11 +503,10 @@
       </c>
       <c r="B4">
         <f>RADIANS($B$3)</f>
-        <v>0.52359877559829882</v>
-      </c>
-      <c r="C4">
-        <f>RADIANS($C$3)</f>
-        <v>1.2391837689159739</v>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -513,11 +523,11 @@
       </c>
       <c r="B6">
         <f>90-B3</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <f>C3</f>
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -526,11 +536,11 @@
       </c>
       <c r="B7">
         <f>RADIANS(B6)</f>
-        <v>1.0471975511965976</v>
+        <v>0.87266462599716477</v>
       </c>
       <c r="C7">
         <f>RADIANS(C6)</f>
-        <v>1.2391837689159739</v>
+        <v>1.2217304763960306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -597,59 +607,59 @@
       </c>
       <c r="B10">
         <f>SQRT((80^2) + (80^2) - 2*80*80*COS(C7))</f>
-        <v>92.912472913750364</v>
+        <v>91.772229816167368</v>
       </c>
       <c r="C10">
         <f>ASIN((SIN(C7)*80)/B10)</f>
-        <v>0.95120444233690948</v>
+        <v>0.95993108859688125</v>
       </c>
       <c r="D10">
         <f>B7-C10</f>
-        <v>9.5993108859688148E-2</v>
+        <v>-8.7266462599716488E-2</v>
       </c>
       <c r="E10">
         <f>B10*COS(D10)</f>
-        <v>92.484722319240589</v>
+        <v>91.423008774923133</v>
       </c>
       <c r="F10">
         <f>B10*SIN(D10)</f>
-        <v>8.9052658849333337</v>
+        <v>-7.9984768532368484</v>
       </c>
       <c r="G10">
         <f>F10+E3</f>
-        <v>33.905265884933335</v>
+        <v>7.0015231467631516</v>
       </c>
       <c r="H10">
         <f>ATAN2(E10,G10)</f>
-        <v>0.35138952188730305</v>
+        <v>7.6434620139039886E-2</v>
       </c>
       <c r="I10">
         <f>G10/SIN(H10)</f>
-        <v>98.503760929190236</v>
+        <v>91.690718504297564</v>
       </c>
       <c r="J10">
         <f>ACOS(((80^2)-(80^2)-I10^2)/(-2*80*I10))</f>
-        <v>0.90758766948609559</v>
+        <v>0.9605528716457965</v>
       </c>
       <c r="K10">
         <f>ASIN(((SIN(J10)*I10)/80))</f>
-        <v>1.3264173146176019</v>
+        <v>1.2204869102981997</v>
       </c>
       <c r="M10">
         <f>E10</f>
-        <v>92.484722319240589</v>
+        <v>91.423008774923133</v>
       </c>
       <c r="N10">
         <f>F10</f>
-        <v>8.9052658849333337</v>
+        <v>-7.9984768532368484</v>
       </c>
       <c r="P10">
         <f>M10</f>
-        <v>92.484722319240589</v>
+        <v>91.423008774923133</v>
       </c>
       <c r="Q10">
         <f>G10</f>
-        <v>33.905265884933335</v>
+        <v>7.0015231467631516</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -658,23 +668,31 @@
       </c>
       <c r="C11">
         <f>DEGREES(C10)</f>
-        <v>54.499999999999993</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <f>DEGREES(D10)</f>
-        <v>5.5000000000000018</v>
+        <v>-5.0000000000000009</v>
       </c>
       <c r="H11">
         <f>DEGREES(H10)</f>
-        <v>20.13313656926233</v>
+        <v>4.3793811426526306</v>
       </c>
       <c r="J11">
         <f>DEGREES(J10)</f>
-        <v>52.000942999667565</v>
+        <v>55.035625544475621</v>
       </c>
       <c r="K11">
         <f>DEGREES(K10)</f>
-        <v>75.99811400066487</v>
+        <v>69.928748911048729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -702,15 +720,15 @@
       </c>
       <c r="B15">
         <f>B7-(H10+J10)</f>
-        <v>-0.21177964017680107</v>
+        <v>-0.16432286578767152</v>
       </c>
       <c r="C15">
+        <f>PI()-K10-C7</f>
+        <v>0.69937526689556284</v>
+      </c>
+      <c r="D15">
         <f>K10-C7</f>
-        <v>8.7233545701628001E-2</v>
-      </c>
-      <c r="D15">
-        <f>3.1416-K10-C7</f>
-        <v>0.57599891646642409</v>
+        <v>-1.2435660978309393E-3</v>
       </c>
       <c r="E15">
         <f>PI()/2</f>
@@ -718,11 +736,11 @@
       </c>
       <c r="M15">
         <f>80*COS(B4)</f>
-        <v>69.282032302755098</v>
+        <v>61.283555449518239</v>
       </c>
       <c r="N15">
         <f>SIN(B4)*80</f>
-        <v>39.999999999999993</v>
+        <v>51.42300877492314</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -731,26 +749,34 @@
       </c>
       <c r="B16">
         <f>DEGREES(B15)</f>
-        <v>-12.134079568929904</v>
+        <v>-9.4150066871282458</v>
       </c>
       <c r="C16">
         <f>DEGREES(C15)</f>
-        <v>4.9981140006648683</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+        <v>40.071251088951271</v>
+      </c>
+      <c r="D16">
+        <f>DEGREES(D15)</f>
+        <v>-7.1251088951265654E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>B16</f>
-        <v>-12.134079568929904</v>
+        <v>-9.4150066871282458</v>
       </c>
       <c r="C20">
         <f>C16</f>
-        <v>4.9981140006648683</v>
+        <v>40.071251088951271</v>
+      </c>
+      <c r="D20">
+        <f>D16</f>
+        <v>-7.1251088951265654E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Cinematica.xlsx
+++ b/Cinematica.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\RobotMSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C31273E-CDE2-4081-9293-73C90E2BE386}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8836CE1E-DE15-4ECA-BC97-FC2DB3804A6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="1275" windowWidth="15375" windowHeight="7875" tabRatio="689" xr2:uid="{284895CC-7DE9-430B-8345-47DE5C2A6C23}"/>
+    <workbookView xWindow="12750" yWindow="2190" windowWidth="15375" windowHeight="7875" tabRatio="689" activeTab="1" xr2:uid="{284895CC-7DE9-430B-8345-47DE5C2A6C23}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1 (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja4" sheetId="5" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="124">
   <si>
     <t>AnguloB</t>
   </si>
@@ -106,7 +108,304 @@
     <t>menores a 90</t>
   </si>
   <si>
-    <t>git chec</t>
+    <t>G0</t>
+  </si>
+  <si>
+    <t>x: -13</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>y: 14</t>
+  </si>
+  <si>
+    <t>z: 68</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>y: 16</t>
+  </si>
+  <si>
+    <t>z: 64</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>x: 17</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>z: 76</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>z: 71</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>G13</t>
+  </si>
+  <si>
+    <t>G14</t>
+  </si>
+  <si>
+    <t>z: 70</t>
+  </si>
+  <si>
+    <t>G15</t>
+  </si>
+  <si>
+    <t>G16</t>
+  </si>
+  <si>
+    <t>z: 66</t>
+  </si>
+  <si>
+    <t>G17</t>
+  </si>
+  <si>
+    <t>G18</t>
+  </si>
+  <si>
+    <t>G19</t>
+  </si>
+  <si>
+    <t>G20</t>
+  </si>
+  <si>
+    <t>z: 80</t>
+  </si>
+  <si>
+    <t>G21</t>
+  </si>
+  <si>
+    <t>z: 78</t>
+  </si>
+  <si>
+    <t>G22</t>
+  </si>
+  <si>
+    <t>G23</t>
+  </si>
+  <si>
+    <t>z: 81</t>
+  </si>
+  <si>
+    <t>G24</t>
+  </si>
+  <si>
+    <t>y: -4</t>
+  </si>
+  <si>
+    <t>G25</t>
+  </si>
+  <si>
+    <t>G26</t>
+  </si>
+  <si>
+    <t>y: 3</t>
+  </si>
+  <si>
+    <t>G27</t>
+  </si>
+  <si>
+    <t>G28</t>
+  </si>
+  <si>
+    <t>G29</t>
+  </si>
+  <si>
+    <t>x: -11</t>
+  </si>
+  <si>
+    <t>z: 73</t>
+  </si>
+  <si>
+    <t>G30</t>
+  </si>
+  <si>
+    <t>G31</t>
+  </si>
+  <si>
+    <t>x: -24</t>
+  </si>
+  <si>
+    <t>G32</t>
+  </si>
+  <si>
+    <t>G33</t>
+  </si>
+  <si>
+    <t>G34</t>
+  </si>
+  <si>
+    <t>G35</t>
+  </si>
+  <si>
+    <t>G36</t>
+  </si>
+  <si>
+    <t>x: 0</t>
+  </si>
+  <si>
+    <t>y: 0</t>
+  </si>
+  <si>
+    <t>z: 0</t>
+  </si>
+  <si>
+    <t>x: -14</t>
+  </si>
+  <si>
+    <t>y: 8</t>
+  </si>
+  <si>
+    <t>y: 12</t>
+  </si>
+  <si>
+    <t>z: 69</t>
+  </si>
+  <si>
+    <t>y: 20</t>
+  </si>
+  <si>
+    <t>x: 4</t>
+  </si>
+  <si>
+    <t>y: 19</t>
+  </si>
+  <si>
+    <t>x: 8</t>
+  </si>
+  <si>
+    <t>y: 22</t>
+  </si>
+  <si>
+    <t>x: 2</t>
+  </si>
+  <si>
+    <t>z: 75</t>
+  </si>
+  <si>
+    <t>x: 25</t>
+  </si>
+  <si>
+    <t>y: 29</t>
+  </si>
+  <si>
+    <t>z: 84</t>
+  </si>
+  <si>
+    <t>z: 88</t>
+  </si>
+  <si>
+    <t>x: -38</t>
+  </si>
+  <si>
+    <t>y: 1</t>
+  </si>
+  <si>
+    <t>z: 67</t>
+  </si>
+  <si>
+    <t>z: 63</t>
+  </si>
+  <si>
+    <t>z: 60</t>
+  </si>
+  <si>
+    <t>y: -3</t>
+  </si>
+  <si>
+    <t>y: -5</t>
+  </si>
+  <si>
+    <t>G37</t>
+  </si>
+  <si>
+    <t>y: 7</t>
+  </si>
+  <si>
+    <t>G38</t>
+  </si>
+  <si>
+    <t>G39</t>
+  </si>
+  <si>
+    <t>G40</t>
+  </si>
+  <si>
+    <t>y: 27</t>
+  </si>
+  <si>
+    <t>G41</t>
+  </si>
+  <si>
+    <t>G42</t>
+  </si>
+  <si>
+    <t>G43</t>
+  </si>
+  <si>
+    <t>z: 82</t>
+  </si>
+  <si>
+    <t>G44</t>
+  </si>
+  <si>
+    <t>y: -1</t>
+  </si>
+  <si>
+    <t>z: 86</t>
+  </si>
+  <si>
+    <t>G45</t>
+  </si>
+  <si>
+    <t>x: 103</t>
+  </si>
+  <si>
+    <t>G46</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>};</t>
   </si>
 </sst>
 </file>
@@ -142,8 +441,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CCDAC4-4144-4C70-91F5-E56707435340}">
-  <dimension ref="A2:Q20"/>
+  <dimension ref="A2:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,13 +788,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -503,19 +803,17 @@
       </c>
       <c r="B4">
         <f>RADIANS($B$3)</f>
-        <v>0.69813170079773179</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
+        <v>0.48869219055841229</v>
+      </c>
+      <c r="C4">
+        <f>RADIANS($C$3)</f>
+        <v>1.2740903539558606</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -523,11 +821,11 @@
       </c>
       <c r="B6">
         <f>90-B3</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C6">
-        <f>C3</f>
-        <v>70</v>
+        <f>C3+B3</f>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -536,11 +834,11 @@
       </c>
       <c r="B7">
         <f>RADIANS(B6)</f>
-        <v>0.87266462599716477</v>
+        <v>1.0821041362364843</v>
       </c>
       <c r="C7">
         <f>RADIANS(C6)</f>
-        <v>1.2217304763960306</v>
+        <v>1.7627825445142729</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -607,84 +905,84 @@
       </c>
       <c r="B10">
         <f>SQRT((80^2) + (80^2) - 2*80*80*COS(C7))</f>
-        <v>91.772229816167368</v>
+        <v>123.4599333420352</v>
       </c>
       <c r="C10">
         <f>ASIN((SIN(C7)*80)/B10)</f>
-        <v>0.95993108859688125</v>
+        <v>0.68940505453776013</v>
       </c>
       <c r="D10">
         <f>B7-C10</f>
-        <v>-8.7266462599716488E-2</v>
+        <v>0.39269908169872414</v>
       </c>
       <c r="E10">
         <f>B10*COS(D10)</f>
-        <v>91.423008774923133</v>
+        <v>114.0621054999141</v>
       </c>
       <c r="F10">
         <f>B10*SIN(D10)</f>
-        <v>-7.9984768532368484</v>
+        <v>47.246071050895218</v>
       </c>
       <c r="G10">
         <f>F10+E3</f>
-        <v>7.0015231467631516</v>
+        <v>72.24607105089521</v>
       </c>
       <c r="H10">
         <f>ATAN2(E10,G10)</f>
-        <v>7.6434620139039886E-2</v>
+        <v>0.56461155143317743</v>
       </c>
       <c r="I10">
         <f>G10/SIN(H10)</f>
-        <v>91.690718504297564</v>
+        <v>135.01725331736137</v>
       </c>
       <c r="J10">
         <f>ACOS(((80^2)-(80^2)-I10^2)/(-2*80*I10))</f>
-        <v>0.9605528716457965</v>
+        <v>0.56636339348967635</v>
       </c>
       <c r="K10">
         <f>ASIN(((SIN(J10)*I10)/80))</f>
-        <v>1.2204869102981997</v>
+        <v>1.1327267869793523</v>
       </c>
       <c r="M10">
         <f>E10</f>
-        <v>91.423008774923133</v>
+        <v>114.0621054999141</v>
       </c>
       <c r="N10">
         <f>F10</f>
-        <v>-7.9984768532368484</v>
+        <v>47.246071050895218</v>
       </c>
       <c r="P10">
         <f>M10</f>
-        <v>91.423008774923133</v>
+        <v>114.0621054999141</v>
       </c>
       <c r="Q10">
         <f>G10</f>
-        <v>7.0015231467631516</v>
+        <v>72.24607105089521</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <f>DEGREES(C10)</f>
-        <v>55</v>
+        <v>39.5</v>
       </c>
       <c r="D11">
         <f>DEGREES(D10)</f>
-        <v>-5.0000000000000009</v>
+        <v>22.5</v>
       </c>
       <c r="H11">
         <f>DEGREES(H10)</f>
-        <v>4.3793811426526306</v>
+        <v>32.349858961454672</v>
       </c>
       <c r="J11">
         <f>DEGREES(J10)</f>
-        <v>55.035625544475621</v>
+        <v>32.450232117665578</v>
       </c>
       <c r="K11">
         <f>DEGREES(K10)</f>
-        <v>69.928748911048729</v>
+        <v>64.900464235331128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -720,15 +1018,15 @@
       </c>
       <c r="B15">
         <f>B7-(H10+J10)</f>
-        <v>-0.16432286578767152</v>
+        <v>-4.8870808686369616E-2</v>
       </c>
       <c r="C15">
         <f>PI()-K10-C7</f>
-        <v>0.69937526689556284</v>
+        <v>0.24608332209616801</v>
       </c>
       <c r="D15">
         <f>K10-C7</f>
-        <v>-1.2435660978309393E-3</v>
+        <v>-0.6300557575349206</v>
       </c>
       <c r="E15">
         <f>PI()/2</f>
@@ -736,11 +1034,11 @@
       </c>
       <c r="M15">
         <f>80*COS(B4)</f>
-        <v>61.283555449518239</v>
+        <v>70.635807428714159</v>
       </c>
       <c r="N15">
         <f>SIN(B4)*80</f>
-        <v>51.42300877492314</v>
+        <v>37.557725022871267</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -749,15 +1047,15 @@
       </c>
       <c r="B16">
         <f>DEGREES(B15)</f>
-        <v>-9.4150066871282458</v>
+        <v>-2.800091079120262</v>
       </c>
       <c r="C16">
         <f>DEGREES(C15)</f>
-        <v>40.071251088951271</v>
+        <v>14.099535764668861</v>
       </c>
       <c r="D16">
         <f>DEGREES(D15)</f>
-        <v>-7.1251088951265654E-2</v>
+        <v>-36.099535764668865</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -768,15 +1066,1773 @@
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>B16</f>
-        <v>-9.4150066871282458</v>
+        <v>-2.800091079120262</v>
       </c>
       <c r="C20">
         <f>C16</f>
-        <v>40.071251088951271</v>
+        <v>14.099535764668861</v>
       </c>
       <c r="D20">
         <f>D16</f>
-        <v>-7.1251088951265654E-2</v>
+        <v>-36.099535764668865</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>B3+B20</f>
+        <v>25.199908920879739</v>
+      </c>
+      <c r="C23">
+        <f>C3+C20</f>
+        <v>87.099535764668857</v>
+      </c>
+      <c r="D23">
+        <f>C3+D20</f>
+        <v>36.900464235331135</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f>36-73</f>
+        <v>-37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0A1E35-9A5C-45F6-B8B2-AFF911D4A916}">
+  <dimension ref="B1:L50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1">
+        <v>-14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2">
+        <v>-14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2">
+        <v>71</v>
+      </c>
+      <c r="L2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3">
+        <v>-14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4">
+        <v>-14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5">
+        <v>-14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7">
+        <v>69</v>
+      </c>
+      <c r="L7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9">
+        <v>69</v>
+      </c>
+      <c r="L9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11">
+        <v>73</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12">
+        <v>73</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13">
+        <v>76</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14">
+        <v>78</v>
+      </c>
+      <c r="L14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15">
+        <v>78</v>
+      </c>
+      <c r="L15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16">
+        <v>71</v>
+      </c>
+      <c r="L16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17">
+        <v>71</v>
+      </c>
+      <c r="L17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18">
+        <v>78</v>
+      </c>
+      <c r="L18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19">
+        <v>78</v>
+      </c>
+      <c r="L19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20">
+        <v>71</v>
+      </c>
+      <c r="L20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21">
+        <v>68</v>
+      </c>
+      <c r="L21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22">
+        <v>75</v>
+      </c>
+      <c r="L22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23">
+        <v>75</v>
+      </c>
+      <c r="L23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24">
+        <v>75</v>
+      </c>
+      <c r="L24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25">
+        <v>80</v>
+      </c>
+      <c r="L25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26">
+        <v>29</v>
+      </c>
+      <c r="J26" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26">
+        <v>81</v>
+      </c>
+      <c r="L26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27">
+        <v>76</v>
+      </c>
+      <c r="L27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28">
+        <v>29</v>
+      </c>
+      <c r="J28" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28">
+        <v>76</v>
+      </c>
+      <c r="L28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>122</v>
+      </c>
+      <c r="K29">
+        <v>84</v>
+      </c>
+      <c r="L29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30">
+        <v>29</v>
+      </c>
+      <c r="J30" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30">
+        <v>88</v>
+      </c>
+      <c r="L30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31">
+        <v>-11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31">
+        <v>88</v>
+      </c>
+      <c r="L31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32">
+        <v>-38</v>
+      </c>
+      <c r="H32" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>122</v>
+      </c>
+      <c r="K32">
+        <v>67</v>
+      </c>
+      <c r="L32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33">
+        <v>-38</v>
+      </c>
+      <c r="H33" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33">
+        <v>-4</v>
+      </c>
+      <c r="J33" t="s">
+        <v>122</v>
+      </c>
+      <c r="K33">
+        <v>63</v>
+      </c>
+      <c r="L33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34">
+        <v>-38</v>
+      </c>
+      <c r="H34" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>122</v>
+      </c>
+      <c r="K34">
+        <v>60</v>
+      </c>
+      <c r="L34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35">
+        <v>-38</v>
+      </c>
+      <c r="H35" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35">
+        <v>-3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>122</v>
+      </c>
+      <c r="K35">
+        <v>60</v>
+      </c>
+      <c r="L35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36">
+        <v>-38</v>
+      </c>
+      <c r="H36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36">
+        <v>-5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36">
+        <v>64</v>
+      </c>
+      <c r="L36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37">
+        <v>-38</v>
+      </c>
+      <c r="H37" t="s">
+        <v>122</v>
+      </c>
+      <c r="I37">
+        <v>-5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>122</v>
+      </c>
+      <c r="K37">
+        <v>70</v>
+      </c>
+      <c r="L37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38">
+        <v>-38</v>
+      </c>
+      <c r="H38" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38" t="s">
+        <v>122</v>
+      </c>
+      <c r="K38">
+        <v>70</v>
+      </c>
+      <c r="L38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39">
+        <v>-13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39">
+        <v>12</v>
+      </c>
+      <c r="J39" t="s">
+        <v>122</v>
+      </c>
+      <c r="K39">
+        <v>75</v>
+      </c>
+      <c r="L39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40">
+        <v>-13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>122</v>
+      </c>
+      <c r="K40">
+        <v>80</v>
+      </c>
+      <c r="L40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41">
+        <v>-11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41">
+        <v>27</v>
+      </c>
+      <c r="J41" t="s">
+        <v>122</v>
+      </c>
+      <c r="K41">
+        <v>75</v>
+      </c>
+      <c r="L41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42">
+        <v>-24</v>
+      </c>
+      <c r="H42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I42">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>122</v>
+      </c>
+      <c r="K42">
+        <v>75</v>
+      </c>
+      <c r="L42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43">
+        <v>-24</v>
+      </c>
+      <c r="H43" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43">
+        <v>27</v>
+      </c>
+      <c r="J43" t="s">
+        <v>122</v>
+      </c>
+      <c r="K43">
+        <v>75</v>
+      </c>
+      <c r="L43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" t="s">
+        <v>120</v>
+      </c>
+      <c r="G44">
+        <v>-24</v>
+      </c>
+      <c r="H44" t="s">
+        <v>122</v>
+      </c>
+      <c r="I44">
+        <v>27</v>
+      </c>
+      <c r="J44" t="s">
+        <v>122</v>
+      </c>
+      <c r="K44">
+        <v>82</v>
+      </c>
+      <c r="L44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45">
+        <v>-24</v>
+      </c>
+      <c r="H45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45">
+        <v>-1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>122</v>
+      </c>
+      <c r="K45">
+        <v>86</v>
+      </c>
+      <c r="L45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46">
+        <v>103</v>
+      </c>
+      <c r="H46" t="s">
+        <v>122</v>
+      </c>
+      <c r="I46">
+        <v>-1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>122</v>
+      </c>
+      <c r="K46">
+        <v>86</v>
+      </c>
+      <c r="L46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>122</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>122</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>122</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>122</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>122</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>122</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>120</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>122</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>122</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +2840,680 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAA3F3E-A004-4588-94F5-C2402463D277}">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>-14</v>
+      </c>
+      <c r="C1">
+        <v>8</v>
+      </c>
+      <c r="D1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>-14</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>-14</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>-14</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>-14</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>29</v>
+      </c>
+      <c r="D27">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31">
+        <v>-11</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32">
+        <v>-38</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33">
+        <v>-38</v>
+      </c>
+      <c r="C33">
+        <v>-4</v>
+      </c>
+      <c r="D33">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34">
+        <v>-38</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35">
+        <v>-38</v>
+      </c>
+      <c r="C35">
+        <v>-3</v>
+      </c>
+      <c r="D35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36">
+        <v>-38</v>
+      </c>
+      <c r="C36">
+        <v>-5</v>
+      </c>
+      <c r="D36">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37">
+        <v>-38</v>
+      </c>
+      <c r="C37">
+        <v>-5</v>
+      </c>
+      <c r="D37">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38">
+        <v>-38</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39">
+        <v>-13</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40">
+        <v>-13</v>
+      </c>
+      <c r="C40">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41">
+        <v>-11</v>
+      </c>
+      <c r="C41">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42">
+        <v>-24</v>
+      </c>
+      <c r="C42">
+        <v>27</v>
+      </c>
+      <c r="D42">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43">
+        <v>-24</v>
+      </c>
+      <c r="C43">
+        <v>27</v>
+      </c>
+      <c r="D43">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44">
+        <v>-24</v>
+      </c>
+      <c r="C44">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45">
+        <v>-24</v>
+      </c>
+      <c r="C45">
+        <v>-1</v>
+      </c>
+      <c r="D45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46">
+        <v>103</v>
+      </c>
+      <c r="C46">
+        <v>-1</v>
+      </c>
+      <c r="D46">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16283C0F-5B47-468C-96D9-0E89D0B35A58}">
   <dimension ref="A2:Q20"/>
   <sheetViews>
@@ -1087,7 +3816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7491EFA-9C4B-44E1-9113-BE3BB6E87F7B}">
   <dimension ref="A2:I24"/>
   <sheetViews>

--- a/Cinematica.xlsx
+++ b/Cinematica.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\RobotMSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8836CE1E-DE15-4ECA-BC97-FC2DB3804A6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716070F9-20C2-4EA6-BBF9-46D28A5E931E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="2190" windowWidth="15375" windowHeight="7875" tabRatio="689" activeTab="1" xr2:uid="{284895CC-7DE9-430B-8345-47DE5C2A6C23}"/>
+    <workbookView xWindow="12585" yWindow="1320" windowWidth="15375" windowHeight="7875" tabRatio="689" activeTab="2" xr2:uid="{284895CC-7DE9-430B-8345-47DE5C2A6C23}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1 (2)" sheetId="3" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="4" r:id="rId2"/>
-    <sheet name="Hoja4" sheetId="5" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId4"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId5"/>
+    <sheet name="Hoja5" sheetId="6" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="5" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="tabla" localSheetId="2">Hoja5!$A$1:$H$50</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,8 +37,25 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{0B51C6A0-4B39-482D-A3EA-F4A822297585}" name="tabla" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Administrador\Downloads\tabla.txt" decimal="," thousands="." space="1" comma="1" consecutive="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="174">
   <si>
     <t>AnguloB</t>
   </si>
@@ -399,6 +420,9 @@
     <t>{</t>
   </si>
   <si>
+    <t>}</t>
+  </si>
+  <si>
     <t>},</t>
   </si>
   <si>
@@ -406,13 +430,160 @@
   </si>
   <si>
     <t>};</t>
+  </si>
+  <si>
+    <t>-42.00</t>
+  </si>
+  <si>
+    <t>-9.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>-3.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>-1.00</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>-4.00</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>-40.00</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>-25.00</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>91.00</t>
+  </si>
+  <si>
+    <t>G47</t>
+  </si>
+  <si>
+    <t>G48</t>
+  </si>
+  <si>
+    <t>G49</t>
+  </si>
+  <si>
+    <t>-26.00</t>
+  </si>
+  <si>
+    <t>-15.00</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>-5.00</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>-2.00</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>58.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,13 +591,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -438,14 +639,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,6 +665,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabla" connectionId="1" xr16:uid="{87D92CFA-C61D-49CB-839D-95DFC4F42AB9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1105,23 +1315,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0A1E35-9A5C-45F6-B8B2-AFF911D4A916}">
-  <dimension ref="B1:L50"/>
+  <dimension ref="B1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" customWidth="1"/>
+    <col min="14" max="14" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.7109375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="1.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -1134,29 +1357,48 @@
       <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1">
+      <c r="F1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="2">
         <v>-14</v>
       </c>
-      <c r="H1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1">
+      <c r="H1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="2">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K1">
+      <c r="J1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="2">
         <v>71</v>
       </c>
-      <c r="L1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4">
+        <v>-26</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>13</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="4">
+        <v>72</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1169,29 +1411,48 @@
       <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="2">
         <v>-14</v>
       </c>
-      <c r="H2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="2">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2">
+      <c r="J2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="2">
         <v>71</v>
       </c>
-      <c r="L2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="4">
+        <v>-15</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>8</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S2" s="4">
+        <v>70</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -1204,29 +1465,48 @@
       <c r="E3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="2">
         <v>-14</v>
       </c>
-      <c r="H3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="2">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="2">
         <v>63</v>
       </c>
-      <c r="L3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4">
+        <v>-15</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>12</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S3" s="4">
+        <v>66</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>32</v>
       </c>
@@ -1239,29 +1519,48 @@
       <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="2">
         <v>-14</v>
       </c>
-      <c r="H4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="2">
         <v>13</v>
       </c>
-      <c r="J4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="2">
         <v>63</v>
       </c>
-      <c r="L4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4">
+        <v>-15</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>12</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S4" s="4">
+        <v>66</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -1274,29 +1573,48 @@
       <c r="E5" t="s">
         <v>85</v>
       </c>
-      <c r="F5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="2">
         <v>-14</v>
       </c>
-      <c r="H5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="2">
         <v>13</v>
       </c>
-      <c r="J5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="2">
         <v>69</v>
       </c>
-      <c r="L5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4">
+        <v>-15</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>12</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S5" s="4">
+        <v>74</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -1309,29 +1627,48 @@
       <c r="E6" t="s">
         <v>70</v>
       </c>
-      <c r="F6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="2">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="2">
         <v>20</v>
       </c>
-      <c r="J6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K6">
+      <c r="J6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="2">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4">
+        <v>-15</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>12</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S6" s="4">
+        <v>76</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -1344,29 +1681,48 @@
       <c r="E7" t="s">
         <v>85</v>
       </c>
-      <c r="F7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="2">
         <v>17</v>
       </c>
-      <c r="H7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="2">
         <v>20</v>
       </c>
-      <c r="J7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7">
+      <c r="J7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="2">
         <v>69</v>
       </c>
-      <c r="L7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>12</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" s="4">
+        <v>76</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -1379,29 +1735,48 @@
       <c r="E8" t="s">
         <v>85</v>
       </c>
-      <c r="F8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="2">
         <v>17</v>
       </c>
-      <c r="H8" t="s">
-        <v>122</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="2">
         <v>20</v>
       </c>
-      <c r="J8" t="s">
-        <v>122</v>
-      </c>
-      <c r="K8">
+      <c r="J8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" s="2">
         <v>69</v>
       </c>
-      <c r="L8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4">
+        <v>-5</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>15</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="4">
+        <v>74</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -1414,29 +1789,48 @@
       <c r="E9" t="s">
         <v>85</v>
       </c>
-      <c r="F9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="2">
         <v>17</v>
       </c>
-      <c r="H9" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9">
+      <c r="H9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="2">
         <v>20</v>
       </c>
-      <c r="J9" t="s">
-        <v>122</v>
-      </c>
-      <c r="K9">
+      <c r="J9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="2">
         <v>69</v>
       </c>
-      <c r="L9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>15</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" s="4">
+        <v>74</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>40</v>
       </c>
@@ -1449,29 +1843,48 @@
       <c r="E10" t="s">
         <v>85</v>
       </c>
-      <c r="F10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="2">
         <v>17</v>
       </c>
-      <c r="H10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10">
+      <c r="H10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="2">
         <v>20</v>
       </c>
-      <c r="J10" t="s">
-        <v>122</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="2">
         <v>69</v>
       </c>
-      <c r="L10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>15</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S10" s="4">
+        <v>67</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>41</v>
       </c>
@@ -1484,29 +1897,48 @@
       <c r="E11" t="s">
         <v>70</v>
       </c>
-      <c r="F11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="2">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11">
+      <c r="H11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="2">
         <v>14</v>
       </c>
-      <c r="J11" t="s">
-        <v>122</v>
-      </c>
-      <c r="K11">
+      <c r="J11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="2">
         <v>73</v>
       </c>
-      <c r="L11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>15</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S11" s="4">
+        <v>73</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>42</v>
       </c>
@@ -1519,29 +1951,48 @@
       <c r="E12" t="s">
         <v>70</v>
       </c>
-      <c r="F12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="2">
         <v>17</v>
       </c>
-      <c r="H12" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12">
+      <c r="H12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="2">
         <v>14</v>
       </c>
-      <c r="J12" t="s">
-        <v>122</v>
-      </c>
-      <c r="K12">
+      <c r="J12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" s="2">
         <v>73</v>
       </c>
-      <c r="L12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>15</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S12" s="4">
+        <v>73</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>44</v>
       </c>
@@ -1554,29 +2005,48 @@
       <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="2">
         <v>4</v>
       </c>
-      <c r="H13" t="s">
-        <v>122</v>
-      </c>
-      <c r="I13">
+      <c r="H13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="2">
         <v>16</v>
       </c>
-      <c r="J13" t="s">
-        <v>122</v>
-      </c>
-      <c r="K13">
+      <c r="J13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="2">
         <v>76</v>
       </c>
-      <c r="L13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>15</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S13" s="4">
+        <v>77</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>45</v>
       </c>
@@ -1589,29 +2059,48 @@
       <c r="E14" t="s">
         <v>57</v>
       </c>
-      <c r="F14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="H14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I14">
+      <c r="H14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="2">
         <v>19</v>
       </c>
-      <c r="J14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K14">
+      <c r="J14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" s="2">
         <v>78</v>
       </c>
-      <c r="L14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4">
+        <v>8</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>20</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S14" s="4">
+        <v>84</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -1624,29 +2113,48 @@
       <c r="E15" t="s">
         <v>57</v>
       </c>
-      <c r="F15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="2">
         <v>8</v>
       </c>
-      <c r="H15" t="s">
-        <v>122</v>
-      </c>
-      <c r="I15">
+      <c r="H15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="2">
         <v>22</v>
       </c>
-      <c r="J15" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15">
+      <c r="J15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="2">
         <v>78</v>
       </c>
-      <c r="L15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4">
+        <v>8</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>20</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S15" s="4">
+        <v>71</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>48</v>
       </c>
@@ -1659,29 +2167,48 @@
       <c r="E16" t="s">
         <v>43</v>
       </c>
-      <c r="F16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="2">
         <v>8</v>
       </c>
-      <c r="H16" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16">
+      <c r="H16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="2">
         <v>22</v>
       </c>
-      <c r="J16" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16">
+      <c r="J16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" s="2">
         <v>71</v>
       </c>
-      <c r="L16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4">
+        <v>-2</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>12</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S16" s="4">
+        <v>78</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>49</v>
       </c>
@@ -1694,29 +2221,48 @@
       <c r="E17" t="s">
         <v>43</v>
       </c>
-      <c r="F17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="2">
         <v>8</v>
       </c>
-      <c r="H17" t="s">
-        <v>122</v>
-      </c>
-      <c r="I17">
+      <c r="H17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="2">
         <v>22</v>
       </c>
-      <c r="J17" t="s">
-        <v>122</v>
-      </c>
-      <c r="K17">
+      <c r="J17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" s="2">
         <v>71</v>
       </c>
-      <c r="L17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4">
+        <v>-2</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>14</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S17" s="4">
+        <v>68</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>51</v>
       </c>
@@ -1729,29 +2275,48 @@
       <c r="E18" t="s">
         <v>57</v>
       </c>
-      <c r="F18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="2">
         <v>8</v>
       </c>
-      <c r="H18" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18">
+      <c r="H18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="2">
         <v>22</v>
       </c>
-      <c r="J18" t="s">
-        <v>122</v>
-      </c>
-      <c r="K18">
+      <c r="J18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="2">
         <v>78</v>
       </c>
-      <c r="L18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4">
+        <v>-2</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>14</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S18" s="4">
+        <v>68</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>52</v>
       </c>
@@ -1764,29 +2329,48 @@
       <c r="E19" t="s">
         <v>57</v>
       </c>
-      <c r="F19" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="2">
         <v>8</v>
       </c>
-      <c r="H19" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19">
+      <c r="H19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="2">
         <v>22</v>
       </c>
-      <c r="J19" t="s">
-        <v>122</v>
-      </c>
-      <c r="K19">
+      <c r="J19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="2">
         <v>78</v>
       </c>
-      <c r="L19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4">
+        <v>-2</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>12</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S19" s="4">
+        <v>75</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>53</v>
       </c>
@@ -1799,29 +2383,48 @@
       <c r="E20" t="s">
         <v>43</v>
       </c>
-      <c r="F20" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="2">
         <v>2</v>
       </c>
-      <c r="H20" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20">
+      <c r="H20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="2">
         <v>16</v>
       </c>
-      <c r="J20" t="s">
-        <v>122</v>
-      </c>
-      <c r="K20">
+      <c r="J20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="2">
         <v>71</v>
       </c>
-      <c r="L20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4">
+        <v>20</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>12</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S20" s="4">
+        <v>75</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -1834,29 +2437,48 @@
       <c r="E21" t="s">
         <v>28</v>
       </c>
-      <c r="F21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21">
+      <c r="F21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="2">
         <v>2</v>
       </c>
-      <c r="H21" t="s">
-        <v>122</v>
-      </c>
-      <c r="I21">
+      <c r="H21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="2">
         <v>16</v>
       </c>
-      <c r="J21" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21">
+      <c r="J21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="2">
         <v>68</v>
       </c>
-      <c r="L21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4">
+        <v>26</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>20</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S21" s="4">
+        <v>79</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -1869,29 +2491,48 @@
       <c r="E22" t="s">
         <v>92</v>
       </c>
-      <c r="F22" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="2">
         <v>2</v>
       </c>
-      <c r="H22" t="s">
-        <v>122</v>
-      </c>
-      <c r="I22">
+      <c r="H22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="2">
         <v>16</v>
       </c>
-      <c r="J22" t="s">
-        <v>122</v>
-      </c>
-      <c r="K22">
+      <c r="J22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="2">
         <v>75</v>
       </c>
-      <c r="L22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4">
+        <v>26</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>20</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S22" s="4">
+        <v>82</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>58</v>
       </c>
@@ -1904,29 +2545,48 @@
       <c r="E23" t="s">
         <v>92</v>
       </c>
-      <c r="F23" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23">
+      <c r="F23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="2">
         <v>2</v>
       </c>
-      <c r="H23" t="s">
-        <v>122</v>
-      </c>
-      <c r="I23">
+      <c r="H23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="2">
         <v>16</v>
       </c>
-      <c r="J23" t="s">
-        <v>122</v>
-      </c>
-      <c r="K23">
+      <c r="J23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" s="2">
         <v>75</v>
       </c>
-      <c r="L23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4">
+        <v>24</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>24</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S23" s="4">
+        <v>82</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>59</v>
       </c>
@@ -1939,29 +2599,48 @@
       <c r="E24" t="s">
         <v>92</v>
       </c>
-      <c r="F24" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24">
+      <c r="F24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="2">
         <v>27</v>
       </c>
-      <c r="H24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I24">
+      <c r="H24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="2">
         <v>16</v>
       </c>
-      <c r="J24" t="s">
-        <v>122</v>
-      </c>
-      <c r="K24">
+      <c r="J24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="2">
         <v>75</v>
       </c>
-      <c r="L24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="4">
+        <v>24</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>25</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S24" s="4">
+        <v>75</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>61</v>
       </c>
@@ -1974,29 +2653,54 @@
       <c r="E25" t="s">
         <v>55</v>
       </c>
-      <c r="F25" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="2">
         <v>27</v>
       </c>
-      <c r="H25" t="s">
-        <v>122</v>
-      </c>
-      <c r="I25">
+      <c r="H25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="2">
         <v>16</v>
       </c>
-      <c r="J25" t="s">
-        <v>122</v>
-      </c>
-      <c r="K25">
+      <c r="J25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="2">
         <v>80</v>
       </c>
-      <c r="L25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="4">
+        <v>-42</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>-9</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S25" s="4">
+        <v>90</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X25" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>63</v>
       </c>
@@ -2009,29 +2713,54 @@
       <c r="E26" t="s">
         <v>60</v>
       </c>
-      <c r="F26" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="2">
         <v>27</v>
       </c>
-      <c r="H26" t="s">
-        <v>122</v>
-      </c>
-      <c r="I26">
+      <c r="H26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="2">
         <v>29</v>
       </c>
-      <c r="J26" t="s">
-        <v>122</v>
-      </c>
-      <c r="K26">
+      <c r="J26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="2">
         <v>81</v>
       </c>
-      <c r="L26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="4">
+        <v>-42</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>-9</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S26" s="4">
+        <v>72</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X26" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>64</v>
       </c>
@@ -2044,29 +2773,54 @@
       <c r="E27" t="s">
         <v>37</v>
       </c>
-      <c r="F27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27">
+      <c r="F27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="2">
         <v>27</v>
       </c>
-      <c r="H27" t="s">
-        <v>122</v>
-      </c>
-      <c r="I27">
+      <c r="H27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" s="2">
         <v>29</v>
       </c>
-      <c r="J27" t="s">
-        <v>122</v>
-      </c>
-      <c r="K27">
+      <c r="J27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="2">
         <v>76</v>
       </c>
-      <c r="L27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4">
+        <v>-42</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S27" s="4">
+        <v>58</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X27" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>66</v>
       </c>
@@ -2079,29 +2833,54 @@
       <c r="E28" t="s">
         <v>37</v>
       </c>
-      <c r="F28" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28">
+      <c r="F28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="2">
         <v>27</v>
       </c>
-      <c r="H28" t="s">
-        <v>122</v>
-      </c>
-      <c r="I28">
+      <c r="H28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="2">
         <v>29</v>
       </c>
-      <c r="J28" t="s">
-        <v>122</v>
-      </c>
-      <c r="K28">
+      <c r="J28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="2">
         <v>76</v>
       </c>
-      <c r="L28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="4">
+        <v>-42</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>2</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S28" s="4">
+        <v>60</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X28" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>67</v>
       </c>
@@ -2114,29 +2893,54 @@
       <c r="E29" t="s">
         <v>95</v>
       </c>
-      <c r="F29" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="2">
         <v>27</v>
       </c>
-      <c r="H29" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29">
+      <c r="H29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="2">
         <v>29</v>
       </c>
-      <c r="J29" t="s">
-        <v>122</v>
-      </c>
-      <c r="K29">
+      <c r="J29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" s="2">
         <v>84</v>
       </c>
-      <c r="L29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="4">
+        <v>-42</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S29" s="4">
+        <v>65</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X29" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>68</v>
       </c>
@@ -2149,29 +2953,54 @@
       <c r="E30" t="s">
         <v>96</v>
       </c>
-      <c r="F30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30">
+      <c r="F30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="2">
         <v>27</v>
       </c>
-      <c r="H30" t="s">
-        <v>122</v>
-      </c>
-      <c r="I30">
+      <c r="H30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="2">
         <v>29</v>
       </c>
-      <c r="J30" t="s">
-        <v>122</v>
-      </c>
-      <c r="K30">
+      <c r="J30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="2">
         <v>88</v>
       </c>
-      <c r="L30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="4">
+        <v>-42</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>-4</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S30" s="4">
+        <v>65</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X30" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>71</v>
       </c>
@@ -2184,29 +3013,54 @@
       <c r="E31" t="s">
         <v>96</v>
       </c>
-      <c r="F31" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31">
+      <c r="F31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="2">
         <v>-11</v>
       </c>
-      <c r="H31" t="s">
-        <v>122</v>
-      </c>
-      <c r="I31">
+      <c r="H31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="2">
         <v>14</v>
       </c>
-      <c r="J31" t="s">
-        <v>122</v>
-      </c>
-      <c r="K31">
+      <c r="J31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K31" s="2">
         <v>88</v>
       </c>
-      <c r="L31" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4">
+        <v>-42</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>5</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S31" s="4">
+        <v>77</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X31" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>72</v>
       </c>
@@ -2219,29 +3073,54 @@
       <c r="E32" t="s">
         <v>99</v>
       </c>
-      <c r="F32" t="s">
-        <v>120</v>
-      </c>
-      <c r="G32">
+      <c r="F32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="2">
         <v>-38</v>
       </c>
-      <c r="H32" t="s">
-        <v>122</v>
-      </c>
-      <c r="I32">
+      <c r="H32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" s="2">
         <v>1</v>
       </c>
-      <c r="J32" t="s">
-        <v>122</v>
-      </c>
-      <c r="K32">
+      <c r="J32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K32" s="2">
         <v>67</v>
       </c>
-      <c r="L32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="4">
+        <v>-40</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>5</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S32" s="4">
+        <v>81</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X32" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>74</v>
       </c>
@@ -2254,29 +3133,54 @@
       <c r="E33" t="s">
         <v>100</v>
       </c>
-      <c r="F33" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33">
+      <c r="F33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="2">
         <v>-38</v>
       </c>
-      <c r="H33" t="s">
-        <v>122</v>
-      </c>
-      <c r="I33">
+      <c r="H33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" s="2">
         <v>-4</v>
       </c>
-      <c r="J33" t="s">
-        <v>122</v>
-      </c>
-      <c r="K33">
+      <c r="J33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K33" s="2">
         <v>63</v>
       </c>
-      <c r="L33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="4">
+        <v>-9</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>23</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S33" s="4">
+        <v>80</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X33" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>75</v>
       </c>
@@ -2289,29 +3193,54 @@
       <c r="E34" t="s">
         <v>101</v>
       </c>
-      <c r="F34" t="s">
-        <v>120</v>
-      </c>
-      <c r="G34">
+      <c r="F34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="2">
         <v>-38</v>
       </c>
-      <c r="H34" t="s">
-        <v>122</v>
-      </c>
-      <c r="I34">
+      <c r="H34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="2">
         <v>3</v>
       </c>
-      <c r="J34" t="s">
-        <v>122</v>
-      </c>
-      <c r="K34">
+      <c r="J34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K34" s="2">
         <v>60</v>
       </c>
-      <c r="L34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" s="4">
+        <v>-9</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>23</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S34" s="4">
+        <v>74</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X34" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>76</v>
       </c>
@@ -2324,29 +3253,54 @@
       <c r="E35" t="s">
         <v>101</v>
       </c>
-      <c r="F35" t="s">
-        <v>120</v>
-      </c>
-      <c r="G35">
+      <c r="F35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="2">
         <v>-38</v>
       </c>
-      <c r="H35" t="s">
-        <v>122</v>
-      </c>
-      <c r="I35">
+      <c r="H35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="2">
         <v>-3</v>
       </c>
-      <c r="J35" t="s">
-        <v>122</v>
-      </c>
-      <c r="K35">
+      <c r="J35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K35" s="2">
         <v>60</v>
       </c>
-      <c r="L35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4">
+        <v>-9</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>23</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S35" s="4">
+        <v>73</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X35" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>77</v>
       </c>
@@ -2359,29 +3313,54 @@
       <c r="E36" t="s">
         <v>31</v>
       </c>
-      <c r="F36" t="s">
-        <v>120</v>
-      </c>
-      <c r="G36">
+      <c r="F36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="2">
         <v>-38</v>
       </c>
-      <c r="H36" t="s">
-        <v>122</v>
-      </c>
-      <c r="I36">
+      <c r="H36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="2">
         <v>-5</v>
       </c>
-      <c r="J36" t="s">
-        <v>122</v>
-      </c>
-      <c r="K36">
+      <c r="J36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K36" s="2">
         <v>64</v>
       </c>
-      <c r="L36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="4">
+        <v>-25</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>23</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S36" s="4">
+        <v>73</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X36" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>78</v>
       </c>
@@ -2394,29 +3373,54 @@
       <c r="E37" t="s">
         <v>47</v>
       </c>
-      <c r="F37" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37">
+      <c r="F37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="2">
         <v>-38</v>
       </c>
-      <c r="H37" t="s">
-        <v>122</v>
-      </c>
-      <c r="I37">
+      <c r="H37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" s="2">
         <v>-5</v>
       </c>
-      <c r="J37" t="s">
-        <v>122</v>
-      </c>
-      <c r="K37">
+      <c r="J37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K37" s="2">
         <v>70</v>
       </c>
-      <c r="L37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N37" s="3"/>
+      <c r="O37" s="4">
+        <v>-25</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>23</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S37" s="4">
+        <v>82</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X37" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>104</v>
       </c>
@@ -2429,29 +3433,54 @@
       <c r="E38" t="s">
         <v>47</v>
       </c>
-      <c r="F38" t="s">
-        <v>120</v>
-      </c>
-      <c r="G38">
+      <c r="F38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="2">
         <v>-38</v>
       </c>
-      <c r="H38" t="s">
-        <v>122</v>
-      </c>
-      <c r="I38">
+      <c r="H38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="2">
         <v>7</v>
       </c>
-      <c r="J38" t="s">
-        <v>122</v>
-      </c>
-      <c r="K38">
+      <c r="J38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K38" s="2">
         <v>70</v>
       </c>
-      <c r="L38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="4">
+        <v>-25</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>23</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S38" s="4">
+        <v>82</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X38" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>106</v>
       </c>
@@ -2464,29 +3493,54 @@
       <c r="E39" t="s">
         <v>92</v>
       </c>
-      <c r="F39" t="s">
-        <v>120</v>
-      </c>
-      <c r="G39">
+      <c r="F39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="2">
         <v>-13</v>
       </c>
-      <c r="H39" t="s">
-        <v>122</v>
-      </c>
-      <c r="I39">
+      <c r="H39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" s="2">
         <v>12</v>
       </c>
-      <c r="J39" t="s">
-        <v>122</v>
-      </c>
-      <c r="K39">
+      <c r="J39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K39" s="2">
         <v>75</v>
       </c>
-      <c r="L39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="4">
+        <v>-25</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S39" s="4">
+        <v>82</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X39" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>107</v>
       </c>
@@ -2499,29 +3553,54 @@
       <c r="E40" t="s">
         <v>55</v>
       </c>
-      <c r="F40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G40">
+      <c r="F40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" s="2">
         <v>-13</v>
       </c>
-      <c r="H40" t="s">
-        <v>122</v>
-      </c>
-      <c r="I40">
+      <c r="H40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" s="2">
         <v>14</v>
       </c>
-      <c r="J40" t="s">
-        <v>122</v>
-      </c>
-      <c r="K40">
+      <c r="J40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K40" s="2">
         <v>80</v>
       </c>
-      <c r="L40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N40" s="3"/>
+      <c r="O40" s="4">
+        <v>13</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S40" s="4">
+        <v>82</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X40" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>108</v>
       </c>
@@ -2534,29 +3613,54 @@
       <c r="E41" t="s">
         <v>92</v>
       </c>
-      <c r="F41" t="s">
-        <v>120</v>
-      </c>
-      <c r="G41">
+      <c r="F41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="2">
         <v>-11</v>
       </c>
-      <c r="H41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I41">
+      <c r="H41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" s="2">
         <v>27</v>
       </c>
-      <c r="J41" t="s">
-        <v>122</v>
-      </c>
-      <c r="K41">
+      <c r="J41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K41" s="2">
         <v>75</v>
       </c>
-      <c r="L41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N41" s="3"/>
+      <c r="O41" s="4">
+        <v>91</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>-3</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S41" s="4">
+        <v>82</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="X41" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>110</v>
       </c>
@@ -2569,29 +3673,48 @@
       <c r="E42" t="s">
         <v>92</v>
       </c>
-      <c r="F42" t="s">
-        <v>120</v>
-      </c>
-      <c r="G42">
+      <c r="F42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="2">
         <v>-24</v>
       </c>
-      <c r="H42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I42">
+      <c r="H42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I42" s="2">
         <v>27</v>
       </c>
-      <c r="J42" t="s">
-        <v>122</v>
-      </c>
-      <c r="K42">
+      <c r="J42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K42" s="2">
         <v>75</v>
       </c>
-      <c r="L42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N42" s="3"/>
+      <c r="O42" s="4">
+        <v>0</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>0</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S42" s="4">
+        <v>0</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>111</v>
       </c>
@@ -2604,29 +3727,48 @@
       <c r="E43" t="s">
         <v>92</v>
       </c>
-      <c r="F43" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43">
+      <c r="F43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="2">
         <v>-24</v>
       </c>
-      <c r="H43" t="s">
-        <v>122</v>
-      </c>
-      <c r="I43">
+      <c r="H43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43" s="2">
         <v>27</v>
       </c>
-      <c r="J43" t="s">
-        <v>122</v>
-      </c>
-      <c r="K43">
+      <c r="J43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K43" s="2">
         <v>75</v>
       </c>
-      <c r="L43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N43" s="3"/>
+      <c r="O43" s="4">
+        <v>0</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>0</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S43" s="4">
+        <v>0</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>112</v>
       </c>
@@ -2639,29 +3781,48 @@
       <c r="E44" t="s">
         <v>113</v>
       </c>
-      <c r="F44" t="s">
-        <v>120</v>
-      </c>
-      <c r="G44">
+      <c r="F44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G44" s="2">
         <v>-24</v>
       </c>
-      <c r="H44" t="s">
-        <v>122</v>
-      </c>
-      <c r="I44">
+      <c r="H44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I44" s="2">
         <v>27</v>
       </c>
-      <c r="J44" t="s">
-        <v>122</v>
-      </c>
-      <c r="K44">
+      <c r="J44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K44" s="2">
         <v>82</v>
       </c>
-      <c r="L44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N44" s="3"/>
+      <c r="O44" s="4">
+        <v>0</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>0</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S44" s="4">
+        <v>0</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>114</v>
       </c>
@@ -2674,29 +3835,48 @@
       <c r="E45" t="s">
         <v>116</v>
       </c>
-      <c r="F45" t="s">
-        <v>120</v>
-      </c>
-      <c r="G45">
+      <c r="F45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" s="2">
         <v>-24</v>
       </c>
-      <c r="H45" t="s">
-        <v>122</v>
-      </c>
-      <c r="I45">
+      <c r="H45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I45" s="2">
         <v>-1</v>
       </c>
-      <c r="J45" t="s">
-        <v>122</v>
-      </c>
-      <c r="K45">
+      <c r="J45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K45" s="2">
         <v>86</v>
       </c>
-      <c r="L45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N45" s="3"/>
+      <c r="O45" s="4">
+        <v>0</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>0</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S45" s="4">
+        <v>0</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>117</v>
       </c>
@@ -2709,29 +3889,48 @@
       <c r="E46" t="s">
         <v>116</v>
       </c>
-      <c r="F46" t="s">
-        <v>120</v>
-      </c>
-      <c r="G46">
+      <c r="F46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46" s="2">
         <v>103</v>
       </c>
-      <c r="H46" t="s">
-        <v>122</v>
-      </c>
-      <c r="I46">
+      <c r="H46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I46" s="2">
         <v>-1</v>
       </c>
-      <c r="J46" t="s">
-        <v>122</v>
-      </c>
-      <c r="K46">
+      <c r="J46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K46" s="2">
         <v>86</v>
       </c>
-      <c r="L46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N46" s="3"/>
+      <c r="O46" s="4">
+        <v>0</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>0</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S46" s="4">
+        <v>0</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>119</v>
       </c>
@@ -2744,95 +3943,171 @@
       <c r="E47" t="s">
         <v>81</v>
       </c>
-      <c r="F47" t="s">
-        <v>120</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
-        <v>122</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47" t="s">
-        <v>122</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F48" t="s">
-        <v>120</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
-        <v>122</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48" t="s">
-        <v>122</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F49" t="s">
-        <v>120</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>122</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>122</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F50" t="s">
-        <v>120</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
-        <v>122</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>122</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50" t="s">
-        <v>123</v>
+      <c r="F47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N47" s="3"/>
+      <c r="O47" s="4">
+        <v>0</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>0</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S47" s="4">
+        <v>0</v>
+      </c>
+      <c r="T47" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="F48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N48" s="3"/>
+      <c r="O48" s="4">
+        <v>0</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>0</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S48" s="4">
+        <v>0</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N49" s="3"/>
+      <c r="O49" s="4">
+        <v>0</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>0</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S49" s="4">
+        <v>0</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F50" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N50" s="3"/>
+      <c r="O50" s="4">
+        <v>0</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>0</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S50" s="4">
+        <v>0</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2841,11 +4116,1940 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7710EE9-2B53-44B8-8AD8-AFEB91CE88F7}">
+  <dimension ref="A1:O50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.140625" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1">
+        <v>-26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>-15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>-15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4">
+        <v>-15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>-15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5" t="s">
+        <v>155</v>
+      </c>
+      <c r="O5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6">
+        <v>-15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" t="s">
+        <v>152</v>
+      </c>
+      <c r="M6" t="s">
+        <v>155</v>
+      </c>
+      <c r="O6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M7" t="s">
+        <v>155</v>
+      </c>
+      <c r="O7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8">
+        <v>-5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M8" t="s">
+        <v>160</v>
+      </c>
+      <c r="O8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" t="s">
+        <v>158</v>
+      </c>
+      <c r="M9" t="s">
+        <v>160</v>
+      </c>
+      <c r="O9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>158</v>
+      </c>
+      <c r="M10" t="s">
+        <v>160</v>
+      </c>
+      <c r="O10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>158</v>
+      </c>
+      <c r="M11" t="s">
+        <v>160</v>
+      </c>
+      <c r="O11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>158</v>
+      </c>
+      <c r="M12" t="s">
+        <v>160</v>
+      </c>
+      <c r="O12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s">
+        <v>160</v>
+      </c>
+      <c r="O13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="s">
+        <v>162</v>
+      </c>
+      <c r="O14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16">
+        <v>-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17">
+        <v>-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17">
+        <v>68</v>
+      </c>
+      <c r="H17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="s">
+        <v>167</v>
+      </c>
+      <c r="O17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18">
+        <v>-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19">
+        <v>-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20">
+        <v>-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="s">
+        <v>162</v>
+      </c>
+      <c r="O21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="M22" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" t="s">
+        <v>171</v>
+      </c>
+      <c r="M23" t="s">
+        <v>172</v>
+      </c>
+      <c r="O23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" t="s">
+        <v>171</v>
+      </c>
+      <c r="M24" t="s">
+        <v>162</v>
+      </c>
+      <c r="O24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25">
+        <v>90</v>
+      </c>
+      <c r="H25" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" t="s">
+        <v>171</v>
+      </c>
+      <c r="M25" t="s">
+        <v>160</v>
+      </c>
+      <c r="O25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26">
+        <v>-42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26">
+        <v>-9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26">
+        <v>90</v>
+      </c>
+      <c r="H26" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" t="s">
+        <v>126</v>
+      </c>
+      <c r="O26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27">
+        <v>-42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27">
+        <v>-9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" t="s">
+        <v>125</v>
+      </c>
+      <c r="M27" t="s">
+        <v>126</v>
+      </c>
+      <c r="O27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28">
+        <v>-42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28">
+        <v>58</v>
+      </c>
+      <c r="H28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" t="s">
+        <v>125</v>
+      </c>
+      <c r="M28" t="s">
+        <v>126</v>
+      </c>
+      <c r="O28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29">
+        <v>-42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29">
+        <v>58</v>
+      </c>
+      <c r="H29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" t="s">
+        <v>125</v>
+      </c>
+      <c r="M29" t="s">
+        <v>129</v>
+      </c>
+      <c r="O29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30">
+        <v>-42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30">
+        <v>-15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30">
+        <v>65</v>
+      </c>
+      <c r="H30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" t="s">
+        <v>131</v>
+      </c>
+      <c r="O30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31">
+        <v>-42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31">
+        <v>-15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31">
+        <v>65</v>
+      </c>
+      <c r="H31" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" t="s">
+        <v>123</v>
+      </c>
+      <c r="K31" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" t="s">
+        <v>132</v>
+      </c>
+      <c r="O31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32">
+        <v>-42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32">
+        <v>-15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32" t="s">
+        <v>123</v>
+      </c>
+      <c r="K32" t="s">
+        <v>125</v>
+      </c>
+      <c r="M32" t="s">
+        <v>134</v>
+      </c>
+      <c r="O32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33">
+        <v>-42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s">
+        <v>121</v>
+      </c>
+      <c r="I33" t="s">
+        <v>123</v>
+      </c>
+      <c r="K33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M33" t="s">
+        <v>136</v>
+      </c>
+      <c r="O33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34">
+        <v>-40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s">
+        <v>121</v>
+      </c>
+      <c r="I34" t="s">
+        <v>123</v>
+      </c>
+      <c r="K34" t="s">
+        <v>138</v>
+      </c>
+      <c r="M34" t="s">
+        <v>136</v>
+      </c>
+      <c r="O34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35">
+        <v>-9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" t="s">
+        <v>123</v>
+      </c>
+      <c r="K35" t="s">
+        <v>126</v>
+      </c>
+      <c r="M35" t="s">
+        <v>140</v>
+      </c>
+      <c r="O35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36">
+        <v>-9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I36" t="s">
+        <v>123</v>
+      </c>
+      <c r="K36" t="s">
+        <v>126</v>
+      </c>
+      <c r="M36" t="s">
+        <v>140</v>
+      </c>
+      <c r="O36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37">
+        <v>-9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37">
+        <v>23</v>
+      </c>
+      <c r="F37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37">
+        <v>73</v>
+      </c>
+      <c r="H37" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" t="s">
+        <v>123</v>
+      </c>
+      <c r="K37" t="s">
+        <v>126</v>
+      </c>
+      <c r="M37" t="s">
+        <v>140</v>
+      </c>
+      <c r="O37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38">
+        <v>-25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38">
+        <v>23</v>
+      </c>
+      <c r="F38" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38">
+        <v>73</v>
+      </c>
+      <c r="H38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" t="s">
+        <v>123</v>
+      </c>
+      <c r="K38" t="s">
+        <v>144</v>
+      </c>
+      <c r="M38" t="s">
+        <v>140</v>
+      </c>
+      <c r="O38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39">
+        <v>-25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39">
+        <v>82</v>
+      </c>
+      <c r="H39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I39" t="s">
+        <v>123</v>
+      </c>
+      <c r="K39" t="s">
+        <v>144</v>
+      </c>
+      <c r="M39" t="s">
+        <v>140</v>
+      </c>
+      <c r="O39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40">
+        <v>-25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I40" t="s">
+        <v>123</v>
+      </c>
+      <c r="K40" t="s">
+        <v>144</v>
+      </c>
+      <c r="M40" t="s">
+        <v>140</v>
+      </c>
+      <c r="O40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41">
+        <v>-25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41">
+        <v>-3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41">
+        <v>82</v>
+      </c>
+      <c r="H41" t="s">
+        <v>121</v>
+      </c>
+      <c r="I41" t="s">
+        <v>123</v>
+      </c>
+      <c r="K41" t="s">
+        <v>144</v>
+      </c>
+      <c r="M41" t="s">
+        <v>129</v>
+      </c>
+      <c r="O41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42">
+        <v>-3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42">
+        <v>82</v>
+      </c>
+      <c r="H42" t="s">
+        <v>121</v>
+      </c>
+      <c r="I42" t="s">
+        <v>123</v>
+      </c>
+      <c r="K42" t="s">
+        <v>146</v>
+      </c>
+      <c r="M42" t="s">
+        <v>129</v>
+      </c>
+      <c r="O42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43">
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43">
+        <v>-3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43">
+        <v>82</v>
+      </c>
+      <c r="H43" t="s">
+        <v>121</v>
+      </c>
+      <c r="I43" t="s">
+        <v>123</v>
+      </c>
+      <c r="K43" t="s">
+        <v>147</v>
+      </c>
+      <c r="M43" t="s">
+        <v>129</v>
+      </c>
+      <c r="O43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>121</v>
+      </c>
+      <c r="I44" t="s">
+        <v>123</v>
+      </c>
+      <c r="K44" t="s">
+        <v>158</v>
+      </c>
+      <c r="M44" t="s">
+        <v>158</v>
+      </c>
+      <c r="O44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>121</v>
+      </c>
+      <c r="I45" t="s">
+        <v>123</v>
+      </c>
+      <c r="K45" t="s">
+        <v>158</v>
+      </c>
+      <c r="M45" t="s">
+        <v>158</v>
+      </c>
+      <c r="O45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>121</v>
+      </c>
+      <c r="I46" t="s">
+        <v>123</v>
+      </c>
+      <c r="K46" t="s">
+        <v>158</v>
+      </c>
+      <c r="M46" t="s">
+        <v>158</v>
+      </c>
+      <c r="O46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>121</v>
+      </c>
+      <c r="I47" t="s">
+        <v>123</v>
+      </c>
+      <c r="K47" t="s">
+        <v>158</v>
+      </c>
+      <c r="M47" t="s">
+        <v>158</v>
+      </c>
+      <c r="O47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>121</v>
+      </c>
+      <c r="I48" t="s">
+        <v>123</v>
+      </c>
+      <c r="K48" t="s">
+        <v>158</v>
+      </c>
+      <c r="M48" t="s">
+        <v>158</v>
+      </c>
+      <c r="O48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>121</v>
+      </c>
+      <c r="I49" t="s">
+        <v>123</v>
+      </c>
+      <c r="K49" t="s">
+        <v>158</v>
+      </c>
+      <c r="M49" t="s">
+        <v>158</v>
+      </c>
+      <c r="O49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>121</v>
+      </c>
+      <c r="K50" t="s">
+        <v>158</v>
+      </c>
+      <c r="M50" t="s">
+        <v>158</v>
+      </c>
+      <c r="O50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAA3F3E-A004-4588-94F5-C2402463D277}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D47"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection sqref="A1:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2855,13 +6059,13 @@
         <v>24</v>
       </c>
       <c r="B1">
-        <v>-14</v>
+        <v>-26</v>
       </c>
       <c r="C1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D1">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2869,13 +6073,13 @@
         <v>26</v>
       </c>
       <c r="B2">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="C2">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2883,7 +6087,7 @@
         <v>29</v>
       </c>
       <c r="B3">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -2897,7 +6101,7 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -2911,13 +6115,13 @@
         <v>33</v>
       </c>
       <c r="B5">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2925,13 +6129,13 @@
         <v>35</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>-15</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2939,13 +6143,13 @@
         <v>36</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2953,13 +6157,13 @@
         <v>38</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>-5</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2967,13 +6171,13 @@
         <v>39</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2981,13 +6185,13 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2995,10 +6199,10 @@
         <v>41</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>73</v>
@@ -3009,10 +6213,10 @@
         <v>42</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>73</v>
@@ -3023,13 +6227,13 @@
         <v>44</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3037,13 +6241,13 @@
         <v>45</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3051,13 +6255,13 @@
         <v>46</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3065,13 +6269,13 @@
         <v>48</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3079,13 +6283,13 @@
         <v>49</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3093,13 +6297,13 @@
         <v>51</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3107,13 +6311,13 @@
         <v>52</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3124,10 +6328,10 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3138,10 +6342,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3149,10 +6353,10 @@
         <v>56</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>75</v>
@@ -3163,13 +6367,13 @@
         <v>58</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3177,13 +6381,13 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3191,13 +6395,13 @@
         <v>61</v>
       </c>
       <c r="B25">
+        <v>26</v>
+      </c>
+      <c r="C25">
         <v>25</v>
       </c>
-      <c r="C25">
-        <v>16</v>
-      </c>
       <c r="D25">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3205,13 +6409,13 @@
         <v>63</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3219,13 +6423,13 @@
         <v>64</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3233,13 +6437,13 @@
         <v>66</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3247,13 +6451,13 @@
         <v>67</v>
       </c>
       <c r="B29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3261,13 +6465,13 @@
         <v>68</v>
       </c>
       <c r="B30">
-        <v>25</v>
+        <v>-42</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3275,13 +6479,13 @@
         <v>71</v>
       </c>
       <c r="B31">
-        <v>-11</v>
+        <v>-42</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>-5</v>
       </c>
       <c r="D31">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3289,13 +6493,13 @@
         <v>72</v>
       </c>
       <c r="B32">
-        <v>-38</v>
+        <v>-42</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3303,13 +6507,13 @@
         <v>74</v>
       </c>
       <c r="B33">
-        <v>-38</v>
+        <v>-42</v>
       </c>
       <c r="C33">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3317,13 +6521,13 @@
         <v>75</v>
       </c>
       <c r="B34">
-        <v>-38</v>
+        <v>-42</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="D34">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3331,13 +6535,13 @@
         <v>76</v>
       </c>
       <c r="B35">
-        <v>-38</v>
+        <v>-42</v>
       </c>
       <c r="C35">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="D35">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3345,13 +6549,13 @@
         <v>77</v>
       </c>
       <c r="B36">
-        <v>-38</v>
+        <v>-42</v>
       </c>
       <c r="C36">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3359,13 +6563,13 @@
         <v>78</v>
       </c>
       <c r="B37">
-        <v>-38</v>
+        <v>-15</v>
       </c>
       <c r="C37">
-        <v>-5</v>
+        <v>23</v>
       </c>
       <c r="D37">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3373,13 +6577,13 @@
         <v>104</v>
       </c>
       <c r="B38">
-        <v>-38</v>
+        <v>-25</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3387,13 +6591,13 @@
         <v>106</v>
       </c>
       <c r="B39">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3401,13 +6605,13 @@
         <v>107</v>
       </c>
       <c r="B40">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3415,13 +6619,13 @@
         <v>108</v>
       </c>
       <c r="B41">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>-9</v>
       </c>
       <c r="D41">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3429,13 +6633,13 @@
         <v>110</v>
       </c>
       <c r="B42">
-        <v>-24</v>
+        <v>92</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>-9</v>
       </c>
       <c r="D42">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3443,13 +6647,13 @@
         <v>111</v>
       </c>
       <c r="B43">
-        <v>-24</v>
+        <v>92</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>-9</v>
       </c>
       <c r="D43">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3457,13 +6661,13 @@
         <v>112</v>
       </c>
       <c r="B44">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3513,7 +6717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16283C0F-5B47-468C-96D9-0E89D0B35A58}">
   <dimension ref="A2:Q20"/>
   <sheetViews>
@@ -3816,7 +7020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7491EFA-9C4B-44E1-9113-BE3BB6E87F7B}">
   <dimension ref="A2:I24"/>
   <sheetViews>
